--- a/biology/Médecine/Michel_Salomon/Michel_Salomon.xlsx
+++ b/biology/Médecine/Michel_Salomon/Michel_Salomon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Salomon (né le 29 avril 1927 à Lille et mort le 16 juin 2020 au Port-Marly[1]) était un médecin de formation, devenu médecin militaire, puis journaliste et lobbyiste français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Salomon (né le 29 avril 1927 à Lille et mort le 16 juin 2020 au Port-Marly) était un médecin de formation, devenu médecin militaire, puis journaliste et lobbyiste français. 
 Il a notamment été organisateur et coordinateur de l'appel d'Heidelberg.
 </t>
         </is>
@@ -514,17 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-En 1954, Michel Salomon obtient un doctorat de médecine à Paris (spécialité: dermatologie).
-Il est médecin militaire durant la guerre d'Indochine, avec le grade de capitaine en 1953-1954[2]. 
-Journaliste
-À partir de 1955, tout en continuant à exercer la dermatologie, il écrit pour différents journaux français et étrangers : Le Monde[3], Paris Match, Le Canard enchaîné, Die Welt, The Guardian et The Washington Post. 
-Il contribue à lancer en 1955 la revue juive mensuelle L'Arche, puis contribue à la revue Mondes d'Orient (créée en 1951)[4].
-Lobbyiste pour l'industrie
-De 1976 à 1988, il est directeur une association dénommée « Prospective et Santé publique », et le magazine Prospective et Santé. Puis, de 1989 à 1991, il est directeur des relations publiques des laboratoires pharmaceutiques Sterling-Winthrop, tout en fondant et dirigeant un journal scientifique baptisé Projections[réf. nécessaire].
-En 1992, il crée une association nommée « International Center for a Scientific Ecology » (ICSE)[5], fondée à Paris à l'initiative du cabinet de conseil aux entreprises Communications économiques et sociales (CES) pour promouvoir l'appel d'Heidelberg et il en devient directeur[6]. Au moment de la préparation et du déroulement du Sommet de la Terre à Rio (juin 1992), il contribue à alimenter et entretenir le doute et les controverses autour de la réalité du changement climatique et de sa couverture dans la presse française[7].
-Le CES, qui organise le lobbying des industriels de l'amiante, confirme en 2012 que Michel Salomon travaillait pour eux[8],[9].
-Il prend sa retraite en 1995[réf. nécessaire].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1954, Michel Salomon obtient un doctorat de médecine à Paris (spécialité: dermatologie).
+Il est médecin militaire durant la guerre d'Indochine, avec le grade de capitaine en 1953-1954. 
 </t>
         </is>
       </c>
@@ -550,10 +559,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Journaliste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1955, tout en continuant à exercer la dermatologie, il écrit pour différents journaux français et étrangers : Le Monde, Paris Match, Le Canard enchaîné, Die Welt, The Guardian et The Washington Post. 
+Il contribue à lancer en 1955 la revue juive mensuelle L'Arche, puis contribue à la revue Mondes d'Orient (créée en 1951).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Salomon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Salomon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lobbyiste pour l'industrie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1976 à 1988, il est directeur une association dénommée « Prospective et Santé publique », et le magazine Prospective et Santé. Puis, de 1989 à 1991, il est directeur des relations publiques des laboratoires pharmaceutiques Sterling-Winthrop, tout en fondant et dirigeant un journal scientifique baptisé Projections[réf. nécessaire].
+En 1992, il crée une association nommée « International Center for a Scientific Ecology » (ICSE), fondée à Paris à l'initiative du cabinet de conseil aux entreprises Communications économiques et sociales (CES) pour promouvoir l'appel d'Heidelberg et il en devient directeur. Au moment de la préparation et du déroulement du Sommet de la Terre à Rio (juin 1992), il contribue à alimenter et entretenir le doute et les controverses autour de la réalité du changement climatique et de sa couverture dans la presse française.
+Le CES, qui organise le lobbying des industriels de l'amiante, confirme en 2012 que Michel Salomon travaillait pour eux,.
+Il prend sa retraite en 1995[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Salomon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Salomon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Baedecker Triste, Jean-Pierre Oswald, 1960
 L'Exil et la Mémoire, Éditions universitaires, 1966
